--- a/config/Format_Marine_Biotoxin.xlsx
+++ b/config/Format_Marine_Biotoxin.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20416"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\winfs-proj\data\proj\havgem\Plankton_algtoxiner\formatmall\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\SLV-Biotoxin-Validator-App\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B82299-5862-4FCC-B20A-F1F5672D65C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387CDCE3-F646-44A3-A4CA-4BFC93964EFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="15110" windowHeight="6230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="15110" windowHeight="6230" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kolumner" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="476">
   <si>
     <t>SHIPC</t>
   </si>
@@ -632,18 +632,9 @@
     <t>4</t>
   </si>
   <si>
-    <t>&lt;</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
-    <t>DST</t>
-  </si>
-  <si>
-    <t>Q_DST</t>
-  </si>
-  <si>
     <t>DTX2</t>
   </si>
   <si>
@@ -653,15 +644,6 @@
     <t>YTX</t>
   </si>
   <si>
-    <t>DST-tot</t>
-  </si>
-  <si>
-    <t>OA</t>
-  </si>
-  <si>
-    <t>Q_OA</t>
-  </si>
-  <si>
     <t>2024</t>
   </si>
   <si>
@@ -692,12 +674,6 @@
     <t>GPS</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>AST</t>
-  </si>
-  <si>
     <t>LOQ</t>
   </si>
   <si>
@@ -929,57 +905,18 @@
     <t>2024-06-20</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
     <t>Q_DTX2</t>
   </si>
   <si>
     <t>Q_DTX3</t>
   </si>
   <si>
-    <t>Q_DST-tot</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>Q_YTX</t>
   </si>
   <si>
-    <t>Q_AST_screening</t>
-  </si>
-  <si>
-    <t>Q_AST</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>AST_screening</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST_screening </t>
-  </si>
-  <si>
     <t>Eurofins</t>
   </si>
   <si>
@@ -989,15 +926,6 @@
     <t>LCMS</t>
   </si>
   <si>
-    <t>Quality-flag</t>
-  </si>
-  <si>
-    <t>IPHAB kod (enhet)</t>
-  </si>
-  <si>
-    <t>IPHAB kod (true/false)</t>
-  </si>
-  <si>
     <t>60%</t>
   </si>
   <si>
@@ -1028,36 +956,12 @@
     <t>https://toxins.hais.ioc-unesco.org/toxins/1/</t>
   </si>
   <si>
-    <t>Okadaic acid (enhet)</t>
-  </si>
-  <si>
-    <t>OA_acyl?</t>
-  </si>
-  <si>
-    <t>Q_OA_acyl?</t>
-  </si>
-  <si>
     <t>55%</t>
   </si>
   <si>
     <t>Closure level</t>
   </si>
   <si>
-    <t>True/Påvisad</t>
-  </si>
-  <si>
-    <t>SMP_CMNT</t>
-  </si>
-  <si>
-    <t>AZA-3</t>
-  </si>
-  <si>
-    <t>Azaspriaskmjsdlgkjml-3 (ug eq/kg)</t>
-  </si>
-  <si>
-    <t>Escherichia coli - (antal/100 g)</t>
-  </si>
-  <si>
     <t>F2.5</t>
   </si>
   <si>
@@ -1067,9 +971,6 @@
     <t>E_coli</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>Toxin type</t>
   </si>
   <si>
@@ -1080,13 +981,847 @@
   </si>
   <si>
     <t>7796</t>
+  </si>
+  <si>
+    <t>45OH_carboxyYTX (mg YTX eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag 45OH_carboxyYTX</t>
+  </si>
+  <si>
+    <t>45_OH_homoYTX (mg YTX eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag 45_OH_homoYTX</t>
+  </si>
+  <si>
+    <t>45_OH_YTX (mg YTX eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag 45_OH_YTX</t>
+  </si>
+  <si>
+    <t>DA (mg/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag DA</t>
+  </si>
+  <si>
+    <t>AZA1 (ug AZA eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag AZA1</t>
+  </si>
+  <si>
+    <t>AZA2 (ug AZA eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag AZA2</t>
+  </si>
+  <si>
+    <t>AZA3 (ug AZA eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag AZA3</t>
+  </si>
+  <si>
+    <t>AZA_tot (ug AZA eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag AZA_tot</t>
+  </si>
+  <si>
+    <t>C1_2 (true or false)</t>
+  </si>
+  <si>
+    <t>Q-flag C1_2</t>
+  </si>
+  <si>
+    <t>STX_C1_C2 (ug STXdiHCL eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag STX_C1_C2</t>
+  </si>
+  <si>
+    <t>C3_4 (Unit)</t>
+  </si>
+  <si>
+    <t>Q-flag C3_4</t>
+  </si>
+  <si>
+    <t>STX_C3_C4 (ug STXdiHCL eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag STX_C3_C4</t>
+  </si>
+  <si>
+    <t>CarboxyYTX (mg YTX eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag CarboxyYTX</t>
+  </si>
+  <si>
+    <t>dcGTX2_3_screen_pos (true or false)</t>
+  </si>
+  <si>
+    <t>Q-flag dcGTX2_3_screen_pos</t>
+  </si>
+  <si>
+    <t>dcGTX2_dcGTX3 (ug STXdiHCL eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag dcGTX2_dcGTX3</t>
+  </si>
+  <si>
+    <t>dcNEO_screen_pos (true or false)</t>
+  </si>
+  <si>
+    <t>Q-flag dcNEO_screen_pos</t>
+  </si>
+  <si>
+    <t>dcNeoSTX (ug STXdiHCL eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag dcNeoSTX</t>
+  </si>
+  <si>
+    <t>dcSTX_screen_pos (true or false)</t>
+  </si>
+  <si>
+    <t>Q-flag dcSTX_screen_pos</t>
+  </si>
+  <si>
+    <t>dcSTX (ug STXdiHCL eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag dcSTX</t>
+  </si>
+  <si>
+    <t>DA_LP205 (Unit)</t>
+  </si>
+  <si>
+    <t>Q-flag DA_LP205</t>
+  </si>
+  <si>
+    <t>DA_screen_pos (true or false)</t>
+  </si>
+  <si>
+    <t>Q-flag DA_screen_pos</t>
+  </si>
+  <si>
+    <t>DST_tot (ug OA eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag DST_tot</t>
+  </si>
+  <si>
+    <t>DTX1 (ug OA eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag DTX1</t>
+  </si>
+  <si>
+    <t>DTX3 (ug OA eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag DTX3</t>
+  </si>
+  <si>
+    <t>DTX2 (ug OA eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag DTX2</t>
+  </si>
+  <si>
+    <t>DTX2_acyl (ug OA eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag DTX2_acyl</t>
+  </si>
+  <si>
+    <t>E_coli (cells/100 g)</t>
+  </si>
+  <si>
+    <t>Q-flag E_coli</t>
+  </si>
+  <si>
+    <t>GTX1_4_screen_pos (true or false)</t>
+  </si>
+  <si>
+    <t>Q-flag GTX1_4_screen_pos</t>
+  </si>
+  <si>
+    <t>GTX1_GTX4 (ug STXdiHCL eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag GTX1_GTX4</t>
+  </si>
+  <si>
+    <t>GTX2_3_screen_pos (true or false)</t>
+  </si>
+  <si>
+    <t>Q-flag GTX2_3_screen_pos</t>
+  </si>
+  <si>
+    <t>GTX2_GTX3 (ug STXdiHCL eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag GTX2_GTX3</t>
+  </si>
+  <si>
+    <t>GTX5_screen_pos (true or false)</t>
+  </si>
+  <si>
+    <t>Q-flag GTX5_screen_pos</t>
+  </si>
+  <si>
+    <t>GTX5 (ug STXdiHCL eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag GTX5</t>
+  </si>
+  <si>
+    <t>GTX6_screen_pos (true or false)</t>
+  </si>
+  <si>
+    <t>Q-flag GTX6_screen_pos</t>
+  </si>
+  <si>
+    <t>GTX6 (ug STXdiHCL eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag GTX6</t>
+  </si>
+  <si>
+    <t>HomoYTX (mg YTX eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag HomoYTX</t>
+  </si>
+  <si>
+    <t>Shortname (Unit)</t>
+  </si>
+  <si>
+    <t>Q-flag Shortname</t>
+  </si>
+  <si>
+    <t>NeoSTX (ug STXdiHCL eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag NeoSTX</t>
+  </si>
+  <si>
+    <t>OA_acyl (ug OA eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag OA_acyl</t>
+  </si>
+  <si>
+    <t>Okadaic acid (ug OA eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag Okadaic</t>
+  </si>
+  <si>
+    <t>PSP_tot (Unit)</t>
+  </si>
+  <si>
+    <t>Q-flag PSP_tot</t>
+  </si>
+  <si>
+    <t>PST_tot (ug STXdiHCL eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag PST_tot</t>
+  </si>
+  <si>
+    <t>PTX1 (ug PTX eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag PTX1</t>
+  </si>
+  <si>
+    <t>PTX2 (ug PTX eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag PTX2</t>
+  </si>
+  <si>
+    <t>PTX_tot (ug PTX eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag PTX_tot</t>
+  </si>
+  <si>
+    <t>SPX1 (ug/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag SPX1</t>
+  </si>
+  <si>
+    <t>STX_screen_pos (true or false)</t>
+  </si>
+  <si>
+    <t>Q-flag STX_screen_pos</t>
+  </si>
+  <si>
+    <t>STX (ug STXdiHCL eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag STX</t>
+  </si>
+  <si>
+    <t>YTX (mg YTX eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag YTX</t>
+  </si>
+  <si>
+    <t>YTX_tot (mg YTX eq/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag YTX_tot</t>
+  </si>
+  <si>
+    <t>Ana_a (mg/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag Ana_a</t>
+  </si>
+  <si>
+    <t>h_Ana (mg/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag h_Ana</t>
+  </si>
+  <si>
+    <t>CYN (mg/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag CYN</t>
+  </si>
+  <si>
+    <t>MC_HTyR (mg/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag MC_HTyR</t>
+  </si>
+  <si>
+    <t>MC_LR_D_Asp3 (mg/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag MC_LR_D_Asp3</t>
+  </si>
+  <si>
+    <t>MC_RR_D_Asp3 (mg/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag MC_RR_D_Asp3</t>
+  </si>
+  <si>
+    <t>NOD_R (mg/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag NOD_R</t>
+  </si>
+  <si>
+    <t>MC_RR (mg/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag MC_RR</t>
+  </si>
+  <si>
+    <t>MC_LR (mg/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag MC_LR</t>
+  </si>
+  <si>
+    <t>MC_YR (mg/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag MC_YR</t>
+  </si>
+  <si>
+    <t>MC_LA (mg/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag MC_LA</t>
+  </si>
+  <si>
+    <t>MC_LF (mg/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag MC_LF</t>
+  </si>
+  <si>
+    <t>MC_LW (mg/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag MC_LW</t>
+  </si>
+  <si>
+    <t>MC_LY (mg/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag MC_LY</t>
+  </si>
+  <si>
+    <t>MC_WR (mg/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag MC_WR</t>
+  </si>
+  <si>
+    <t>MC_HilR (mg/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag MC_HilR</t>
+  </si>
+  <si>
+    <t>MC_RR_D_Asp3_E_Dhb7 (mg/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag MC_RR_D_Asp3_E_Dhb7</t>
+  </si>
+  <si>
+    <t>MC_LR_Dha7 (mg/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag MC_LR_Dha7</t>
+  </si>
+  <si>
+    <t>MC_RR_Dha7 (mg/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag MC_RR_Dha7</t>
+  </si>
+  <si>
+    <t>MC_HphR_DAsp3_E_Dhb7 (mg/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag MC_HphR_DAsp3_E_Dhb7</t>
+  </si>
+  <si>
+    <t>MC_HtyR_D_Asp3_E_Dhb7 (mg/kg)</t>
+  </si>
+  <si>
+    <t>Q-flag MC_HtyR_D_Asp3_E_Dhb7</t>
+  </si>
+  <si>
+    <t>45OH_carboxyYTX</t>
+  </si>
+  <si>
+    <t>Q_45OH_carboxyYTX</t>
+  </si>
+  <si>
+    <t>45_OH_homoYTX</t>
+  </si>
+  <si>
+    <t>Q_45_OH_homoYTX</t>
+  </si>
+  <si>
+    <t>45_OH_YTX</t>
+  </si>
+  <si>
+    <t>Q_45_OH_YTX</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>Q_DA</t>
+  </si>
+  <si>
+    <t>AZA1</t>
+  </si>
+  <si>
+    <t>Q_AZA1</t>
+  </si>
+  <si>
+    <t>AZA2</t>
+  </si>
+  <si>
+    <t>Q_AZA2</t>
+  </si>
+  <si>
+    <t>AZA3</t>
+  </si>
+  <si>
+    <t>Q_AZA3</t>
+  </si>
+  <si>
+    <t>AZA_tot</t>
+  </si>
+  <si>
+    <t>Q_AZA_tot</t>
+  </si>
+  <si>
+    <t>C1_2</t>
+  </si>
+  <si>
+    <t>Q_C1_2</t>
+  </si>
+  <si>
+    <t>STX_C1_C2</t>
+  </si>
+  <si>
+    <t>Q_STX_C1_C2</t>
+  </si>
+  <si>
+    <t>C3_4</t>
+  </si>
+  <si>
+    <t>Q_C3_4</t>
+  </si>
+  <si>
+    <t>STX_C3_C4</t>
+  </si>
+  <si>
+    <t>Q_STX_C3_C4</t>
+  </si>
+  <si>
+    <t>CarboxyYTX</t>
+  </si>
+  <si>
+    <t>Q_CarboxyYTX</t>
+  </si>
+  <si>
+    <t>dcGTX2_3_screen_pos</t>
+  </si>
+  <si>
+    <t>Q_dcGTX2_3_screen_pos</t>
+  </si>
+  <si>
+    <t>dcGTX2_dcGTX3</t>
+  </si>
+  <si>
+    <t>Q_dcGTX2_dcGTX3</t>
+  </si>
+  <si>
+    <t>dcNEO_screen_pos</t>
+  </si>
+  <si>
+    <t>Q_dcNEO_screen_pos</t>
+  </si>
+  <si>
+    <t>dcNeoSTX</t>
+  </si>
+  <si>
+    <t>Q_dcNeoSTX</t>
+  </si>
+  <si>
+    <t>dcSTX_screen_pos</t>
+  </si>
+  <si>
+    <t>Q_dcSTX_screen_pos</t>
+  </si>
+  <si>
+    <t>dcSTX</t>
+  </si>
+  <si>
+    <t>Q_dcSTX</t>
+  </si>
+  <si>
+    <t>DA_LP205</t>
+  </si>
+  <si>
+    <t>Q_DA_LP205</t>
+  </si>
+  <si>
+    <t>DA_screen_pos</t>
+  </si>
+  <si>
+    <t>Q_DA_screen_pos</t>
+  </si>
+  <si>
+    <t>DST_tot</t>
+  </si>
+  <si>
+    <t>Q_DST_tot</t>
+  </si>
+  <si>
+    <t>DTX1</t>
+  </si>
+  <si>
+    <t>Q_DTX1</t>
+  </si>
+  <si>
+    <t>DTX2_acyl</t>
+  </si>
+  <si>
+    <t>Q_DTX2_acyl</t>
+  </si>
+  <si>
+    <t>GTX1_4_screen_pos</t>
+  </si>
+  <si>
+    <t>Q_GTX1_4_screen_pos</t>
+  </si>
+  <si>
+    <t>GTX1_GTX4</t>
+  </si>
+  <si>
+    <t>Q_GTX1_GTX4</t>
+  </si>
+  <si>
+    <t>GTX2_3_screen_pos</t>
+  </si>
+  <si>
+    <t>Q_GTX2_3_screen_pos</t>
+  </si>
+  <si>
+    <t>GTX2_GTX3</t>
+  </si>
+  <si>
+    <t>Q_GTX2_GTX3</t>
+  </si>
+  <si>
+    <t>GTX5_screen_pos</t>
+  </si>
+  <si>
+    <t>Q_GTX5_screen_pos</t>
+  </si>
+  <si>
+    <t>GTX5</t>
+  </si>
+  <si>
+    <t>Q_GTX5</t>
+  </si>
+  <si>
+    <t>GTX6_screen_pos</t>
+  </si>
+  <si>
+    <t>Q_GTX6_screen_pos</t>
+  </si>
+  <si>
+    <t>GTX6</t>
+  </si>
+  <si>
+    <t>Q_GTX6</t>
+  </si>
+  <si>
+    <t>HomoYTX</t>
+  </si>
+  <si>
+    <t>Q_HomoYTX</t>
+  </si>
+  <si>
+    <t>Shortname</t>
+  </si>
+  <si>
+    <t>Q_Shortname</t>
+  </si>
+  <si>
+    <t>NeoSTX</t>
+  </si>
+  <si>
+    <t>Q_NeoSTX</t>
+  </si>
+  <si>
+    <t>OA_acyl</t>
+  </si>
+  <si>
+    <t>Q_OA_acyl</t>
+  </si>
+  <si>
+    <t>Okadaic acid</t>
+  </si>
+  <si>
+    <t>Q_Okadaic acid</t>
+  </si>
+  <si>
+    <t>PSP_tot</t>
+  </si>
+  <si>
+    <t>Q_PSP_tot</t>
+  </si>
+  <si>
+    <t>PST_tot</t>
+  </si>
+  <si>
+    <t>Q_PST_tot</t>
+  </si>
+  <si>
+    <t>PTX1</t>
+  </si>
+  <si>
+    <t>Q_PTX1</t>
+  </si>
+  <si>
+    <t>PTX2</t>
+  </si>
+  <si>
+    <t>Q_PTX2</t>
+  </si>
+  <si>
+    <t>PTX_tot</t>
+  </si>
+  <si>
+    <t>Q_PTX_tot</t>
+  </si>
+  <si>
+    <t>SPX1</t>
+  </si>
+  <si>
+    <t>Q_SPX1</t>
+  </si>
+  <si>
+    <t>STX_screen_pos</t>
+  </si>
+  <si>
+    <t>Q_STX_screen_pos</t>
+  </si>
+  <si>
+    <t>STX</t>
+  </si>
+  <si>
+    <t>Q_STX</t>
+  </si>
+  <si>
+    <t>YTX_tot</t>
+  </si>
+  <si>
+    <t>Q_YTX_tot</t>
+  </si>
+  <si>
+    <t>Ana_a</t>
+  </si>
+  <si>
+    <t>Q_Ana_a</t>
+  </si>
+  <si>
+    <t>h_Ana</t>
+  </si>
+  <si>
+    <t>Q_h_Ana</t>
+  </si>
+  <si>
+    <t>CYN</t>
+  </si>
+  <si>
+    <t>Q_CYN</t>
+  </si>
+  <si>
+    <t>MC_HTyR</t>
+  </si>
+  <si>
+    <t>Q_MC_HTyR</t>
+  </si>
+  <si>
+    <t>MC_LR_D_Asp3</t>
+  </si>
+  <si>
+    <t>Q_MC_LR_D_Asp3</t>
+  </si>
+  <si>
+    <t>MC_RR_D_Asp3</t>
+  </si>
+  <si>
+    <t>Q_MC_RR_D_Asp3</t>
+  </si>
+  <si>
+    <t>NOD_R</t>
+  </si>
+  <si>
+    <t>Q_NOD_R</t>
+  </si>
+  <si>
+    <t>MC_RR</t>
+  </si>
+  <si>
+    <t>Q_MC_RR</t>
+  </si>
+  <si>
+    <t>MC_LR</t>
+  </si>
+  <si>
+    <t>Q_MC_LR</t>
+  </si>
+  <si>
+    <t>MC_YR</t>
+  </si>
+  <si>
+    <t>Q_MC_YR</t>
+  </si>
+  <si>
+    <t>MC_LA</t>
+  </si>
+  <si>
+    <t>Q_MC_LA</t>
+  </si>
+  <si>
+    <t>MC_LF</t>
+  </si>
+  <si>
+    <t>Q_MC_LF</t>
+  </si>
+  <si>
+    <t>MC_LW</t>
+  </si>
+  <si>
+    <t>Q_MC_LW</t>
+  </si>
+  <si>
+    <t>MC_LY</t>
+  </si>
+  <si>
+    <t>Q_MC_LY</t>
+  </si>
+  <si>
+    <t>MC_WR</t>
+  </si>
+  <si>
+    <t>Q_MC_WR</t>
+  </si>
+  <si>
+    <t>MC_HilR</t>
+  </si>
+  <si>
+    <t>Q_MC_HilR</t>
+  </si>
+  <si>
+    <t>MC_RR_D_Asp3_E_Dhb7</t>
+  </si>
+  <si>
+    <t>Q_MC_RR_D_Asp3_E_Dhb7</t>
+  </si>
+  <si>
+    <t>MC_LR_Dha7</t>
+  </si>
+  <si>
+    <t>Q_MC_LR_Dha7</t>
+  </si>
+  <si>
+    <t>MC_RR_Dha7</t>
+  </si>
+  <si>
+    <t>Q_MC_RR_Dha7</t>
+  </si>
+  <si>
+    <t>MC_HphR_DAsp3_E_Dhb7</t>
+  </si>
+  <si>
+    <t>Q_MC_HphR_DAsp3_E_Dhb7</t>
+  </si>
+  <si>
+    <t>MC_HtyR_D_Asp3_E_Dhb7</t>
+  </si>
+  <si>
+    <t>Q_MC_HtyR_D_Asp3_E_Dhb7</t>
+  </si>
+  <si>
+    <t>Provkommentar per djup (fritext)</t>
+  </si>
+  <si>
+    <t>COMNT_SAMP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1161,11 +1896,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1268,7 +2023,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1314,14 +2069,12 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1352,12 +2105,20 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1699,67 +2460,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BB189"/>
+  <sheetPr codeName="Blad1"/>
+  <dimension ref="A1:FT189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="FT13" sqref="FT13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" style="30" customWidth="1"/>
-    <col min="10" max="10" width="26.7265625" style="30" customWidth="1"/>
-    <col min="11" max="11" width="21.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.1796875" style="14" customWidth="1"/>
-    <col min="15" max="15" width="22.7265625" style="14" customWidth="1"/>
-    <col min="16" max="16" width="12" style="14" customWidth="1"/>
-    <col min="17" max="18" width="33" style="14" customWidth="1"/>
-    <col min="19" max="19" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25" style="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9" style="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.453125" style="14" customWidth="1"/>
-    <col min="24" max="24" width="11.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="19.81640625" style="14" customWidth="1"/>
-    <col min="29" max="29" width="7.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.54296875" style="14" customWidth="1"/>
-    <col min="32" max="33" width="25.90625" style="14" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18" style="14" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="11.453125" style="14" customWidth="1"/>
-    <col min="48" max="48" width="21.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="31.6328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.453125" style="14" customWidth="1"/>
-    <col min="53" max="53" width="17.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="54" style="14" bestFit="1" customWidth="1"/>
-    <col min="55" max="16384" width="12.81640625" style="14"/>
+    <col min="1" max="1" width="12" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.90625" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.6328125" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.90625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24" style="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.90625" style="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15" style="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.90625" style="14" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="28.90625" style="14" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.90625" style="14" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="18.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="20.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="17" style="14" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="27.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="27.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="24.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="31.90625" style="14" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="25.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="32" style="14" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="20" style="14" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="29.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="22.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="26.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="14.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="28.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="21.90625" style="14" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="23.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="14.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="26" style="14" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="19.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="19.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="13.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="17.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="10.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="17.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="10.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="17.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="10.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="21.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="14.90625" style="14" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="16.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="11.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="30" style="14" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="23.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="28.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="16.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="30" style="14" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="23.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="28.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="27.90625" style="14" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="21.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="22.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="10.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="27.90625" style="14" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="21.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="22.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="10.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="22.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="14.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="15.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="15.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="24.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="12.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="19.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="13.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="23.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="13.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="12.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="13" style="14" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="24.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="12.90625" style="14" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="17.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="10.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="17.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="10.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="20.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="13.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="11.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="10.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="26.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="19.90625" style="14" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="21.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="9.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="17.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="9.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="20.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="13" style="14" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="13.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="11.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="13.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="11.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="11.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="9.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="16" style="14" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="14.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="21.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="19.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="21.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="19.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="13.90625" style="14" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="12.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="13.90625" style="14" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="12.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="13.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="13.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="12.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="13.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="12.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="13.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="11.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="14.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="12.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="13.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="11.90625" style="14" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="14.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="13.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="15" style="14" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="13.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="29" style="14" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="27.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="19.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="17.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="19.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="17.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="30.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="28.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="30.90625" style="14" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="29.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="29.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="175" max="16384" width="12.81640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:176" x14ac:dyDescent="0.35">
       <c r="A1" s="16"/>
       <c r="B1" s="10" t="s">
         <v>33</v>
@@ -1809,43 +2696,165 @@
         <v>30</v>
       </c>
       <c r="Y1" s="17"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38" t="s">
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38"/>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="38"/>
-      <c r="AZ1" s="38"/>
-      <c r="BA1" s="18" t="s">
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="36"/>
+      <c r="BD1" s="36"/>
+      <c r="BE1" s="36"/>
+      <c r="BF1" s="36"/>
+      <c r="BG1" s="36"/>
+      <c r="BH1" s="36"/>
+      <c r="BI1" s="36"/>
+      <c r="BJ1" s="36"/>
+      <c r="BK1" s="36"/>
+      <c r="BL1" s="36"/>
+      <c r="BM1" s="36"/>
+      <c r="BN1" s="36"/>
+      <c r="BO1" s="36"/>
+      <c r="BP1" s="36"/>
+      <c r="BQ1" s="36"/>
+      <c r="BR1" s="36"/>
+      <c r="BS1" s="36"/>
+      <c r="BT1" s="36"/>
+      <c r="BU1" s="36"/>
+      <c r="BV1" s="36"/>
+      <c r="BW1" s="36"/>
+      <c r="BX1" s="36"/>
+      <c r="BY1" s="36"/>
+      <c r="BZ1" s="36"/>
+      <c r="CA1" s="36"/>
+      <c r="CB1" s="36"/>
+      <c r="CC1" s="36"/>
+      <c r="CD1" s="36"/>
+      <c r="CE1" s="36"/>
+      <c r="CF1" s="36"/>
+      <c r="CG1" s="36"/>
+      <c r="CH1" s="36"/>
+      <c r="CI1" s="36"/>
+      <c r="CJ1" s="36"/>
+      <c r="CK1" s="36"/>
+      <c r="CL1" s="36"/>
+      <c r="CM1" s="36"/>
+      <c r="CN1" s="36"/>
+      <c r="CO1" s="36"/>
+      <c r="CP1" s="36"/>
+      <c r="CQ1" s="36"/>
+      <c r="CR1" s="36"/>
+      <c r="CS1" s="36"/>
+      <c r="CT1" s="36"/>
+      <c r="CU1" s="36"/>
+      <c r="CV1" s="36"/>
+      <c r="CW1" s="36"/>
+      <c r="CX1" s="36"/>
+      <c r="CY1" s="36"/>
+      <c r="CZ1" s="36"/>
+      <c r="DA1" s="36"/>
+      <c r="DB1" s="36"/>
+      <c r="DC1" s="36"/>
+      <c r="DD1" s="36"/>
+      <c r="DE1" s="36"/>
+      <c r="DF1" s="36"/>
+      <c r="DG1" s="36"/>
+      <c r="DH1" s="36"/>
+      <c r="DI1" s="36"/>
+      <c r="DJ1" s="36"/>
+      <c r="DK1" s="36"/>
+      <c r="DL1" s="36"/>
+      <c r="DM1" s="36"/>
+      <c r="DN1" s="36"/>
+      <c r="DO1" s="36"/>
+      <c r="DP1" s="36"/>
+      <c r="DQ1" s="36"/>
+      <c r="DR1" s="36"/>
+      <c r="DS1" s="36"/>
+      <c r="DT1" s="36"/>
+      <c r="DU1" s="36"/>
+      <c r="DV1" s="36"/>
+      <c r="DW1" s="36"/>
+      <c r="DX1" s="36"/>
+      <c r="DY1" s="36"/>
+      <c r="DZ1" s="36"/>
+      <c r="EA1" s="36"/>
+      <c r="EB1" s="36"/>
+      <c r="EC1" s="36"/>
+      <c r="ED1" s="36"/>
+      <c r="EE1" s="36"/>
+      <c r="EF1" s="36"/>
+      <c r="EG1" s="36"/>
+      <c r="EH1" s="36"/>
+      <c r="EI1" s="36"/>
+      <c r="EJ1" s="36"/>
+      <c r="EK1" s="36"/>
+      <c r="EL1" s="36"/>
+      <c r="EM1" s="36"/>
+      <c r="EN1" s="36"/>
+      <c r="EO1" s="36"/>
+      <c r="EP1" s="36"/>
+      <c r="EQ1" s="36"/>
+      <c r="ER1" s="36"/>
+      <c r="ES1" s="36"/>
+      <c r="ET1" s="36"/>
+      <c r="EU1" s="36"/>
+      <c r="EV1" s="36"/>
+      <c r="EW1" s="36"/>
+      <c r="EX1" s="36"/>
+      <c r="EY1" s="36"/>
+      <c r="EZ1" s="36"/>
+      <c r="FA1" s="36"/>
+      <c r="FB1" s="36"/>
+      <c r="FC1" s="36"/>
+      <c r="FD1" s="36"/>
+      <c r="FE1" s="36"/>
+      <c r="FF1" s="36"/>
+      <c r="FG1" s="36"/>
+      <c r="FH1" s="36"/>
+      <c r="FI1" s="36"/>
+      <c r="FJ1" s="36"/>
+      <c r="FK1" s="36"/>
+      <c r="FL1" s="36"/>
+      <c r="FM1" s="36"/>
+      <c r="FN1" s="36"/>
+      <c r="FO1" s="36"/>
+      <c r="FP1" s="36"/>
+      <c r="FQ1" s="36"/>
+      <c r="FR1" s="47"/>
+      <c r="FS1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="BB1" s="19" t="s">
+      <c r="FT1" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:176" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
@@ -1867,7 +2876,7 @@
       <c r="G2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="40" t="s">
         <v>34</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -1876,20 +2885,20 @@
       <c r="J2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="34" t="s">
         <v>71</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>19</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>65</v>
@@ -1919,78 +2928,450 @@
       <c r="AC2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AD2" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE2" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="AF2" s="25" t="s">
+      <c r="AD2" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE2" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF2" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG2" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH2" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI2" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ2" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK2" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL2" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM2" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN2" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="AO2" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="AP2" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="AQ2" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="AR2" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="AS2" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="AT2" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="AU2" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="AV2" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="AW2" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="AX2" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="AY2" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="AZ2" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="BA2" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="BB2" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="BC2" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="BD2" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI2" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ2" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="AK2" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="AL2" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="AM2" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="AN2" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="AO2" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="AP2" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="AQ2" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="AR2" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="AS2" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="AT2" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="AW2" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="AX2" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="AY2" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="AZ2" s="11"/>
-      <c r="BA2" s="22" t="s">
+      <c r="BE2" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="BF2" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="BG2" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="BH2" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="BI2" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="BJ2" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="BK2" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="BL2" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="BM2" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="BN2" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="BO2" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="BP2" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="BQ2" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="BR2" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="BS2" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="BT2" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="BU2" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="BV2" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="BW2" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="BX2" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="BY2" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="BZ2" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="CA2" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="CB2" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="CC2" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="CD2" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="CE2" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="CF2" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="CG2" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="CH2" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="CI2" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="CJ2" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="CK2" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="CL2" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="CM2" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="CN2" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="CO2" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="CP2" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="CQ2" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="CR2" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="CS2" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="CT2" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="CU2" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="CV2" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="CW2" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="CX2" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="CY2" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="CZ2" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="DA2" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="DB2" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="DC2" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="DD2" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="DE2" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="DF2" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="DG2" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="DH2" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="DI2" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="DJ2" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="DK2" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="DL2" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="DM2" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="DN2" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="DO2" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="DP2" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="DQ2" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="DR2" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="DS2" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="DT2" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="DU2" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="DV2" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="DW2" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="DX2" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="DY2" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="DZ2" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="EA2" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="EB2" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="EC2" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="ED2" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="EE2" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="EF2" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="EG2" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="EH2" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="EI2" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="EJ2" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="EK2" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="EL2" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="EM2" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="EN2" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="EO2" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="EP2" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="EQ2" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="ER2" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="ES2" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="ET2" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="EU2" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="EV2" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="EW2" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="EX2" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="EY2" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="EZ2" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="FA2" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="FB2" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="FC2" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="FD2" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="FE2" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="FF2" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="FG2" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="FH2" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="FI2" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="FJ2" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="FK2" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="FL2" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="FM2" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="FN2" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="FO2" s="45" t="s">
+        <v>337</v>
+      </c>
+      <c r="FP2" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="FQ2" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="FR2" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="FS2" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="BB2" s="22" t="s">
+      <c r="FT2" s="21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:54" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:176" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -2011,19 +3392,19 @@
       <c r="G3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="35" t="s">
         <v>73</v>
       </c>
       <c r="M3" s="12" t="s">
@@ -2038,1329 +3419,1455 @@
       <c r="P3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="R3" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="S3" s="39" t="s">
+      <c r="Q3" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="S3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="T3" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="U3" s="25" t="s">
+      <c r="U3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="W3" s="24" t="s">
+      <c r="V3" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="W3" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="X3" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z3" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA3" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB3" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC3" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD3" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE3" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF3" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="AG3" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="AH3" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI3" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="AJ3" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="AK3" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="AL3" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="AM3" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="AN3" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="AO3" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="AP3" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="AQ3" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="AR3" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="AS3" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="AT3" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="AU3" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="AV3" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="AW3" s="46" t="s">
+        <v>357</v>
+      </c>
+      <c r="AX3" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="AY3" s="46" t="s">
+        <v>359</v>
+      </c>
+      <c r="AZ3" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="BA3" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="BB3" s="46" t="s">
+        <v>362</v>
+      </c>
+      <c r="BC3" s="46" t="s">
+        <v>363</v>
+      </c>
+      <c r="BD3" s="46" t="s">
+        <v>364</v>
+      </c>
+      <c r="BE3" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="BF3" s="46" t="s">
+        <v>366</v>
+      </c>
+      <c r="BG3" s="46" t="s">
+        <v>367</v>
+      </c>
+      <c r="BH3" s="46" t="s">
+        <v>368</v>
+      </c>
+      <c r="BI3" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="BJ3" s="46" t="s">
+        <v>370</v>
+      </c>
+      <c r="BK3" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="BL3" s="46" t="s">
+        <v>372</v>
+      </c>
+      <c r="BM3" s="46" t="s">
+        <v>373</v>
+      </c>
+      <c r="BN3" s="46" t="s">
+        <v>374</v>
+      </c>
+      <c r="BO3" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="BP3" s="46" t="s">
+        <v>376</v>
+      </c>
+      <c r="BQ3" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="BR3" s="46" t="s">
+        <v>378</v>
+      </c>
+      <c r="BS3" s="46" t="s">
+        <v>379</v>
+      </c>
+      <c r="BT3" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="BU3" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="BV3" s="46" t="s">
+        <v>382</v>
+      </c>
+      <c r="BW3" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="BX3" s="46" t="s">
+        <v>384</v>
+      </c>
+      <c r="BY3" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="BZ3" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="CA3" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="CB3" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="CC3" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="CD3" s="46" t="s">
+        <v>386</v>
+      </c>
+      <c r="CE3" s="46" t="s">
+        <v>387</v>
+      </c>
+      <c r="CF3" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CG3" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="CH3" s="46" t="s">
+        <v>388</v>
+      </c>
+      <c r="CI3" s="46" t="s">
+        <v>389</v>
+      </c>
+      <c r="CJ3" s="46" t="s">
+        <v>390</v>
+      </c>
+      <c r="CK3" s="46" t="s">
+        <v>391</v>
+      </c>
+      <c r="CL3" s="46" t="s">
+        <v>392</v>
+      </c>
+      <c r="CM3" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="CN3" s="46" t="s">
+        <v>394</v>
+      </c>
+      <c r="CO3" s="46" t="s">
+        <v>395</v>
+      </c>
+      <c r="CP3" s="46" t="s">
+        <v>396</v>
+      </c>
+      <c r="CQ3" s="46" t="s">
+        <v>397</v>
+      </c>
+      <c r="CR3" s="46" t="s">
+        <v>398</v>
+      </c>
+      <c r="CS3" s="46" t="s">
+        <v>399</v>
+      </c>
+      <c r="CT3" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="CU3" s="46" t="s">
+        <v>401</v>
+      </c>
+      <c r="CV3" s="46" t="s">
+        <v>402</v>
+      </c>
+      <c r="CW3" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="CX3" s="46" t="s">
+        <v>404</v>
+      </c>
+      <c r="CY3" s="46" t="s">
+        <v>405</v>
+      </c>
+      <c r="CZ3" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="DA3" s="46" t="s">
+        <v>407</v>
+      </c>
+      <c r="DB3" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="DC3" s="46" t="s">
+        <v>409</v>
+      </c>
+      <c r="DD3" s="46" t="s">
+        <v>410</v>
+      </c>
+      <c r="DE3" s="46" t="s">
+        <v>411</v>
+      </c>
+      <c r="DF3" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="DG3" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="DH3" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="DI3" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="DJ3" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="DK3" s="46" t="s">
+        <v>417</v>
+      </c>
+      <c r="DL3" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="DM3" s="46" t="s">
+        <v>419</v>
+      </c>
+      <c r="DN3" s="46" t="s">
+        <v>420</v>
+      </c>
+      <c r="DO3" s="46" t="s">
+        <v>421</v>
+      </c>
+      <c r="DP3" s="46" t="s">
+        <v>422</v>
+      </c>
+      <c r="DQ3" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="DR3" s="46" t="s">
+        <v>424</v>
+      </c>
+      <c r="DS3" s="46" t="s">
+        <v>425</v>
+      </c>
+      <c r="DT3" s="46" t="s">
+        <v>426</v>
+      </c>
+      <c r="DU3" s="46" t="s">
+        <v>427</v>
+      </c>
+      <c r="DV3" s="46" t="s">
+        <v>428</v>
+      </c>
+      <c r="DW3" s="46" t="s">
+        <v>429</v>
+      </c>
+      <c r="DX3" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="DY3" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="DZ3" s="46" t="s">
+        <v>430</v>
+      </c>
+      <c r="EA3" s="46" t="s">
+        <v>431</v>
+      </c>
+      <c r="EB3" s="46" t="s">
+        <v>432</v>
+      </c>
+      <c r="EC3" s="46" t="s">
+        <v>433</v>
+      </c>
+      <c r="ED3" s="46" t="s">
+        <v>434</v>
+      </c>
+      <c r="EE3" s="46" t="s">
+        <v>435</v>
+      </c>
+      <c r="EF3" s="46" t="s">
+        <v>436</v>
+      </c>
+      <c r="EG3" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="EH3" s="46" t="s">
+        <v>438</v>
+      </c>
+      <c r="EI3" s="46" t="s">
+        <v>439</v>
+      </c>
+      <c r="EJ3" s="46" t="s">
+        <v>440</v>
+      </c>
+      <c r="EK3" s="46" t="s">
+        <v>441</v>
+      </c>
+      <c r="EL3" s="46" t="s">
+        <v>442</v>
+      </c>
+      <c r="EM3" s="46" t="s">
+        <v>443</v>
+      </c>
+      <c r="EN3" s="46" t="s">
+        <v>444</v>
+      </c>
+      <c r="EO3" s="46" t="s">
+        <v>445</v>
+      </c>
+      <c r="EP3" s="46" t="s">
+        <v>446</v>
+      </c>
+      <c r="EQ3" s="46" t="s">
+        <v>447</v>
+      </c>
+      <c r="ER3" s="46" t="s">
+        <v>448</v>
+      </c>
+      <c r="ES3" s="46" t="s">
+        <v>449</v>
+      </c>
+      <c r="ET3" s="46" t="s">
+        <v>450</v>
+      </c>
+      <c r="EU3" s="46" t="s">
+        <v>451</v>
+      </c>
+      <c r="EV3" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="EW3" s="46" t="s">
+        <v>453</v>
+      </c>
+      <c r="EX3" s="46" t="s">
+        <v>454</v>
+      </c>
+      <c r="EY3" s="46" t="s">
+        <v>455</v>
+      </c>
+      <c r="EZ3" s="46" t="s">
+        <v>456</v>
+      </c>
+      <c r="FA3" s="46" t="s">
+        <v>457</v>
+      </c>
+      <c r="FB3" s="46" t="s">
+        <v>458</v>
+      </c>
+      <c r="FC3" s="46" t="s">
+        <v>459</v>
+      </c>
+      <c r="FD3" s="46" t="s">
+        <v>460</v>
+      </c>
+      <c r="FE3" s="46" t="s">
+        <v>461</v>
+      </c>
+      <c r="FF3" s="46" t="s">
+        <v>462</v>
+      </c>
+      <c r="FG3" s="46" t="s">
+        <v>463</v>
+      </c>
+      <c r="FH3" s="46" t="s">
+        <v>464</v>
+      </c>
+      <c r="FI3" s="46" t="s">
+        <v>465</v>
+      </c>
+      <c r="FJ3" s="46" t="s">
+        <v>466</v>
+      </c>
+      <c r="FK3" s="46" t="s">
+        <v>467</v>
+      </c>
+      <c r="FL3" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="FM3" s="46" t="s">
+        <v>469</v>
+      </c>
+      <c r="FN3" s="46" t="s">
+        <v>470</v>
+      </c>
+      <c r="FO3" s="46" t="s">
+        <v>471</v>
+      </c>
+      <c r="FP3" s="46" t="s">
+        <v>472</v>
+      </c>
+      <c r="FQ3" s="46" t="s">
+        <v>473</v>
+      </c>
+      <c r="FR3" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="FS3" s="25"/>
+      <c r="FT3" s="25"/>
+    </row>
+    <row r="4" spans="1:176" x14ac:dyDescent="0.35">
+      <c r="B4" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="R4" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="X3" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y3" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z3" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA3" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB3" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC3" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD3" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE3" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF3" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="AG3" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="AH3" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI3" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ3" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK3" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="AL3" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM3" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="AN3" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO3" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="AP3" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ3" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="AR3" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS3" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT3" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="AU3" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="AV3" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW3" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="AX3" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="AY3" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="AZ3" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="BA3" s="27"/>
-      <c r="BB3" s="27"/>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="B4" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="L4" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>129</v>
-      </c>
       <c r="S4" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V4" s="14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="W4" s="14" t="s">
         <v>80</v>
       </c>
       <c r="X4" s="14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z4" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC4" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="AA4" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC4" s="14" t="s">
-        <v>140</v>
-      </c>
       <c r="AD4" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE4" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH4" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="AI4" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="AJ4" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL4" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="AN4" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="AP4" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="AR4" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV4" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="AX4" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:176" x14ac:dyDescent="0.35">
       <c r="B5" s="14" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="L5" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="L5" s="35" t="s">
+      <c r="M5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="V5" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="R5" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="V5" s="14" t="s">
-        <v>122</v>
       </c>
       <c r="W5" s="14" t="s">
         <v>80</v>
       </c>
       <c r="X5" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z5" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA5" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC5" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD5" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE5" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:176" x14ac:dyDescent="0.35">
+      <c r="B6" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="Z5" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA5" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC5" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD5" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE5" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH5" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="AJ5" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="AL5" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="AN5" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="AP5" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR5" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="AV5" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="B6" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>107</v>
-      </c>
       <c r="F6" s="14" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="L6" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="V6" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="S6" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="V6" s="14" t="s">
-        <v>122</v>
       </c>
       <c r="W6" s="14" t="s">
         <v>80</v>
       </c>
       <c r="X6" s="14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z6" s="14" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AC6" s="14" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="AD6" s="14" t="s">
         <v>77</v>
       </c>
       <c r="AE6" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF6" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:176" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="L7" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="V7" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="V7" s="14" t="s">
-        <v>122</v>
       </c>
       <c r="W7" s="14" t="s">
         <v>80</v>
       </c>
       <c r="X7" s="14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z7" s="14" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA7" s="14" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AC7" s="14" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AD7" s="14" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="AE7" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH7" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ7" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL7" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN7" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP7" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR7" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="AV7" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:176" x14ac:dyDescent="0.35">
       <c r="B8" s="14" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="L8" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="V8" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="R8" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="S8" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="V8" s="14" t="s">
-        <v>122</v>
       </c>
       <c r="W8" s="14" t="s">
         <v>80</v>
       </c>
       <c r="X8" s="14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z8" s="14" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA8" s="14" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AC8" s="14" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="AD8" s="14" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="AE8" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH8" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ8" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL8" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN8" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP8" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR8" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV8" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:176" x14ac:dyDescent="0.35">
+      <c r="B9" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="B9" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="F9" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="N9" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="G9" s="14" t="s">
+      <c r="O9" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="P9" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="H9" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="L9" s="35" t="s">
+      <c r="Q9" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="V9" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="R9" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="S9" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="V9" s="14" t="s">
-        <v>122</v>
       </c>
       <c r="W9" s="14" t="s">
         <v>80</v>
       </c>
       <c r="X9" s="14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z9" s="14" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="AA9" s="14" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="AC9" s="14" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="AD9" s="14" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="AE9" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH9" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:176" x14ac:dyDescent="0.35">
+      <c r="B10" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="O10" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="AJ9" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="AL9" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="AN9" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP9" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="AR9" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="AV9" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="B10" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>206</v>
-      </c>
       <c r="P10" s="14" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="R10" s="40">
+        <v>120</v>
+      </c>
+      <c r="R10" s="38">
         <v>144</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="V10" s="14" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="W10" s="14" t="s">
         <v>78</v>
       </c>
       <c r="X10" s="14" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="Z10" s="14" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="AA10" s="14" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="AC10" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD10" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE10" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:176" x14ac:dyDescent="0.35">
+      <c r="B11" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="AD10" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE10" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH10" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="AJ10" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="AL10" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="AN10" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="AP10" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="AR10" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="AV10" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="B11" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>154</v>
-      </c>
       <c r="G11" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="L11" s="35" t="s">
-        <v>113</v>
+        <v>197</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>105</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="R11" s="40">
+        <v>120</v>
+      </c>
+      <c r="R11" s="38">
         <v>144</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="V11" s="14" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="W11" s="14" t="s">
         <v>78</v>
       </c>
       <c r="X11" s="14" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="Z11" s="14" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA11" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC11" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="AC11" s="14" t="s">
-        <v>142</v>
-      </c>
       <c r="AD11" s="14" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="AE11" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH11" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ11" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="AL11" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN11" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="AP11" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="AR11" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="AV11" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:176" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="N12" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="L12" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>115</v>
-      </c>
       <c r="O12" s="14" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="R12" s="40">
+        <v>120</v>
+      </c>
+      <c r="R12" s="38">
         <v>144</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="V12" s="14" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="W12" s="14" t="s">
         <v>78</v>
       </c>
       <c r="X12" s="14" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="Z12" s="14" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA12" s="14" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AC12" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD12" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE12" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:176" x14ac:dyDescent="0.35">
+      <c r="B13" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="AD12" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE12" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH12" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="AJ12" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="AL12" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN12" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP12" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="AR12" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="AV12" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="B13" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="I13" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="O13" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="G13" s="14" t="s">
+      <c r="P13" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="L13" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>100</v>
-      </c>
       <c r="Q13" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="R13" s="40">
+        <v>120</v>
+      </c>
+      <c r="R13" s="38">
         <v>144</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="V13" s="14" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="W13" s="14" t="s">
         <v>78</v>
       </c>
       <c r="X13" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z13" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="Z13" s="14" t="s">
-        <v>131</v>
-      </c>
       <c r="AA13" s="14" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="AC13" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD13" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE13" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:176" x14ac:dyDescent="0.35">
+      <c r="B14" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="AD13" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE13" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH13" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="AJ13" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="AL13" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="AN13" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="AP13" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="AR13" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="AV13" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="B14" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="14" t="s">
+      <c r="F14" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="I14" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="V14" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="W14" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="X14" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z14" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA14" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC14" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="S14" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="V14" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="W14" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="X14" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z14" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA14" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC14" s="14" t="s">
-        <v>165</v>
       </c>
       <c r="AD14" s="14" t="s">
         <v>77</v>
       </c>
       <c r="AE14" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:176" x14ac:dyDescent="0.35">
+      <c r="B15" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="V15" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="W15" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="X15" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z15" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC15" s="14" t="s">
         <v>166</v>
-      </c>
-      <c r="AH14" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ14" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL14" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN14" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP14" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR14" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV14" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="B15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="P15" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="S15" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="V15" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="W15" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="X15" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z15" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC15" s="14" t="s">
-        <v>174</v>
       </c>
       <c r="AD15" s="14" t="s">
         <v>77</v>
       </c>
       <c r="AE15" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="AH15" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ15" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL15" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN15" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP15" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR15" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="AV15" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:176" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F16" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="V16" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="W16" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="X16" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y16" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z16" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="L16" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="O16" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="P16" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="S16" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="V16" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="W16" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="X16" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y16" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z16" s="14" t="s">
-        <v>176</v>
-      </c>
       <c r="AC16" s="14" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="AD16" s="14" t="s">
         <v>79</v>
@@ -3368,892 +4875,871 @@
       <c r="AE16" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AH16" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ16" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL16" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN16" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP16" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR16" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV16" s="14" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="17" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
     </row>
     <row r="18" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
     </row>
     <row r="19" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
     </row>
     <row r="20" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
     </row>
     <row r="22" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
     </row>
     <row r="23" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
     </row>
     <row r="24" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
     </row>
     <row r="25" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
     </row>
     <row r="26" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
     </row>
     <row r="27" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
     </row>
     <row r="28" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
     </row>
     <row r="29" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
     </row>
     <row r="30" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
     </row>
     <row r="31" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
     </row>
     <row r="32" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
     </row>
     <row r="33" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
     </row>
     <row r="34" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
     </row>
     <row r="35" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
     </row>
     <row r="36" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
     </row>
     <row r="37" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
     </row>
     <row r="38" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
     </row>
     <row r="39" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
     </row>
     <row r="40" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
     </row>
     <row r="41" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
     </row>
     <row r="42" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
     </row>
     <row r="43" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
     </row>
     <row r="44" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
     </row>
     <row r="45" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
     </row>
     <row r="46" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
     </row>
     <row r="47" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
     </row>
     <row r="48" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
     </row>
     <row r="49" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
     </row>
     <row r="50" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
     </row>
     <row r="51" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
     </row>
     <row r="52" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
     </row>
     <row r="53" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
     </row>
     <row r="54" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
     </row>
     <row r="55" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
     </row>
     <row r="56" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
     </row>
     <row r="57" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
     </row>
     <row r="58" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
     </row>
     <row r="59" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
     </row>
     <row r="60" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
     </row>
     <row r="61" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
     </row>
     <row r="62" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
     </row>
     <row r="63" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
     </row>
     <row r="64" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
     </row>
     <row r="65" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
     </row>
     <row r="66" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
     </row>
     <row r="67" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33"/>
     </row>
     <row r="68" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="35"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="33"/>
     </row>
     <row r="69" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33"/>
     </row>
     <row r="70" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
     </row>
     <row r="71" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="33"/>
     </row>
     <row r="72" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="35"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="33"/>
+      <c r="J72" s="33"/>
     </row>
     <row r="73" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="33"/>
+      <c r="J73" s="33"/>
     </row>
     <row r="74" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="35"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
     </row>
     <row r="75" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="33"/>
+      <c r="J75" s="33"/>
     </row>
     <row r="76" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="35"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="33"/>
+      <c r="J76" s="33"/>
     </row>
     <row r="77" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
-      <c r="J77" s="35"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="33"/>
+      <c r="J77" s="33"/>
     </row>
     <row r="78" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="35"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="33"/>
+      <c r="J78" s="33"/>
     </row>
     <row r="79" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H79" s="35"/>
-      <c r="I79" s="35"/>
-      <c r="J79" s="35"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="33"/>
+      <c r="J79" s="33"/>
     </row>
     <row r="80" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H80" s="35"/>
-      <c r="I80" s="35"/>
-      <c r="J80" s="35"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="33"/>
+      <c r="J80" s="33"/>
     </row>
     <row r="81" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H81" s="35"/>
-      <c r="I81" s="35"/>
-      <c r="J81" s="35"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="33"/>
+      <c r="J81" s="33"/>
     </row>
     <row r="82" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H82" s="35"/>
-      <c r="I82" s="35"/>
-      <c r="J82" s="35"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="33"/>
     </row>
     <row r="83" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
-      <c r="J83" s="35"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="33"/>
     </row>
     <row r="84" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H84" s="35"/>
-      <c r="I84" s="35"/>
-      <c r="J84" s="35"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="33"/>
     </row>
     <row r="85" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H85" s="35"/>
-      <c r="I85" s="35"/>
-      <c r="J85" s="35"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="33"/>
     </row>
     <row r="86" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H86" s="35"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="35"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="33"/>
     </row>
     <row r="87" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H87" s="35"/>
-      <c r="I87" s="35"/>
-      <c r="J87" s="35"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="33"/>
     </row>
     <row r="88" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H88" s="35"/>
-      <c r="I88" s="35"/>
-      <c r="J88" s="35"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="33"/>
+      <c r="J88" s="33"/>
     </row>
     <row r="89" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H89" s="35"/>
-      <c r="I89" s="35"/>
-      <c r="J89" s="35"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="33"/>
+      <c r="J89" s="33"/>
     </row>
     <row r="90" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H90" s="35"/>
-      <c r="I90" s="35"/>
-      <c r="J90" s="35"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="33"/>
     </row>
     <row r="91" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H91" s="35"/>
-      <c r="I91" s="35"/>
-      <c r="J91" s="35"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="33"/>
     </row>
     <row r="92" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H92" s="35"/>
-      <c r="I92" s="35"/>
-      <c r="J92" s="35"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="33"/>
+      <c r="J92" s="33"/>
     </row>
     <row r="93" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H93" s="35"/>
-      <c r="I93" s="35"/>
-      <c r="J93" s="35"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="33"/>
+      <c r="J93" s="33"/>
     </row>
     <row r="94" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H94" s="35"/>
-      <c r="I94" s="35"/>
-      <c r="J94" s="35"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="33"/>
+      <c r="J94" s="33"/>
     </row>
     <row r="95" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H95" s="35"/>
-      <c r="I95" s="35"/>
-      <c r="J95" s="35"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="33"/>
+      <c r="J95" s="33"/>
     </row>
     <row r="96" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H96" s="35"/>
-      <c r="I96" s="35"/>
-      <c r="J96" s="35"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="33"/>
+      <c r="J96" s="33"/>
     </row>
     <row r="97" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H97" s="35"/>
-      <c r="I97" s="35"/>
-      <c r="J97" s="35"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="33"/>
+      <c r="J97" s="33"/>
     </row>
     <row r="98" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H98" s="35"/>
-      <c r="I98" s="35"/>
-      <c r="J98" s="35"/>
+      <c r="H98" s="33"/>
+      <c r="I98" s="33"/>
+      <c r="J98" s="33"/>
     </row>
     <row r="99" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H99" s="35"/>
-      <c r="I99" s="35"/>
-      <c r="J99" s="35"/>
+      <c r="H99" s="33"/>
+      <c r="I99" s="33"/>
+      <c r="J99" s="33"/>
     </row>
     <row r="100" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H100" s="35"/>
-      <c r="I100" s="35"/>
-      <c r="J100" s="35"/>
+      <c r="H100" s="33"/>
+      <c r="I100" s="33"/>
+      <c r="J100" s="33"/>
     </row>
     <row r="101" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H101" s="35"/>
-      <c r="I101" s="35"/>
-      <c r="J101" s="35"/>
+      <c r="H101" s="33"/>
+      <c r="I101" s="33"/>
+      <c r="J101" s="33"/>
     </row>
     <row r="102" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H102" s="35"/>
-      <c r="I102" s="35"/>
-      <c r="J102" s="35"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="33"/>
+      <c r="J102" s="33"/>
     </row>
     <row r="103" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H103" s="35"/>
-      <c r="I103" s="35"/>
-      <c r="J103" s="35"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="33"/>
+      <c r="J103" s="33"/>
     </row>
     <row r="104" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H104" s="35"/>
-      <c r="I104" s="35"/>
-      <c r="J104" s="35"/>
+      <c r="H104" s="33"/>
+      <c r="I104" s="33"/>
+      <c r="J104" s="33"/>
     </row>
     <row r="105" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H105" s="35"/>
-      <c r="I105" s="35"/>
-      <c r="J105" s="35"/>
+      <c r="H105" s="33"/>
+      <c r="I105" s="33"/>
+      <c r="J105" s="33"/>
     </row>
     <row r="106" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H106" s="35"/>
-      <c r="I106" s="35"/>
-      <c r="J106" s="35"/>
+      <c r="H106" s="33"/>
+      <c r="I106" s="33"/>
+      <c r="J106" s="33"/>
     </row>
     <row r="107" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H107" s="35"/>
-      <c r="I107" s="35"/>
-      <c r="J107" s="35"/>
+      <c r="H107" s="33"/>
+      <c r="I107" s="33"/>
+      <c r="J107" s="33"/>
     </row>
     <row r="108" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H108" s="35"/>
-      <c r="I108" s="35"/>
-      <c r="J108" s="35"/>
+      <c r="H108" s="33"/>
+      <c r="I108" s="33"/>
+      <c r="J108" s="33"/>
     </row>
     <row r="109" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H109" s="35"/>
-      <c r="I109" s="35"/>
-      <c r="J109" s="35"/>
+      <c r="H109" s="33"/>
+      <c r="I109" s="33"/>
+      <c r="J109" s="33"/>
     </row>
     <row r="110" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H110" s="35"/>
-      <c r="I110" s="35"/>
-      <c r="J110" s="35"/>
+      <c r="H110" s="33"/>
+      <c r="I110" s="33"/>
+      <c r="J110" s="33"/>
     </row>
     <row r="111" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H111" s="35"/>
-      <c r="I111" s="35"/>
-      <c r="J111" s="35"/>
+      <c r="H111" s="33"/>
+      <c r="I111" s="33"/>
+      <c r="J111" s="33"/>
     </row>
     <row r="112" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H112" s="35"/>
-      <c r="I112" s="35"/>
-      <c r="J112" s="35"/>
+      <c r="H112" s="33"/>
+      <c r="I112" s="33"/>
+      <c r="J112" s="33"/>
     </row>
     <row r="113" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H113" s="35"/>
-      <c r="I113" s="35"/>
-      <c r="J113" s="35"/>
+      <c r="H113" s="33"/>
+      <c r="I113" s="33"/>
+      <c r="J113" s="33"/>
     </row>
     <row r="114" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H114" s="35"/>
-      <c r="I114" s="35"/>
-      <c r="J114" s="35"/>
+      <c r="H114" s="33"/>
+      <c r="I114" s="33"/>
+      <c r="J114" s="33"/>
     </row>
     <row r="115" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H115" s="35"/>
-      <c r="I115" s="35"/>
-      <c r="J115" s="35"/>
+      <c r="H115" s="33"/>
+      <c r="I115" s="33"/>
+      <c r="J115" s="33"/>
     </row>
     <row r="116" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H116" s="35"/>
-      <c r="I116" s="35"/>
-      <c r="J116" s="35"/>
+      <c r="H116" s="33"/>
+      <c r="I116" s="33"/>
+      <c r="J116" s="33"/>
     </row>
     <row r="117" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H117" s="35"/>
-      <c r="I117" s="35"/>
-      <c r="J117" s="35"/>
+      <c r="H117" s="33"/>
+      <c r="I117" s="33"/>
+      <c r="J117" s="33"/>
     </row>
     <row r="118" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H118" s="35"/>
-      <c r="I118" s="35"/>
-      <c r="J118" s="35"/>
+      <c r="H118" s="33"/>
+      <c r="I118" s="33"/>
+      <c r="J118" s="33"/>
     </row>
     <row r="119" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H119" s="35"/>
-      <c r="I119" s="35"/>
-      <c r="J119" s="35"/>
+      <c r="H119" s="33"/>
+      <c r="I119" s="33"/>
+      <c r="J119" s="33"/>
     </row>
     <row r="120" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H120" s="35"/>
-      <c r="I120" s="35"/>
-      <c r="J120" s="35"/>
+      <c r="H120" s="33"/>
+      <c r="I120" s="33"/>
+      <c r="J120" s="33"/>
     </row>
     <row r="121" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H121" s="35"/>
-      <c r="I121" s="35"/>
-      <c r="J121" s="35"/>
+      <c r="H121" s="33"/>
+      <c r="I121" s="33"/>
+      <c r="J121" s="33"/>
     </row>
     <row r="122" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H122" s="35"/>
-      <c r="I122" s="35"/>
-      <c r="J122" s="35"/>
+      <c r="H122" s="33"/>
+      <c r="I122" s="33"/>
+      <c r="J122" s="33"/>
     </row>
     <row r="123" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H123" s="35"/>
-      <c r="I123" s="35"/>
-      <c r="J123" s="35"/>
+      <c r="H123" s="33"/>
+      <c r="I123" s="33"/>
+      <c r="J123" s="33"/>
     </row>
     <row r="124" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H124" s="35"/>
-      <c r="I124" s="35"/>
-      <c r="J124" s="35"/>
+      <c r="H124" s="33"/>
+      <c r="I124" s="33"/>
+      <c r="J124" s="33"/>
     </row>
     <row r="125" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H125" s="35"/>
-      <c r="I125" s="35"/>
-      <c r="J125" s="35"/>
+      <c r="H125" s="33"/>
+      <c r="I125" s="33"/>
+      <c r="J125" s="33"/>
     </row>
     <row r="126" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H126" s="35"/>
-      <c r="I126" s="35"/>
-      <c r="J126" s="35"/>
+      <c r="H126" s="33"/>
+      <c r="I126" s="33"/>
+      <c r="J126" s="33"/>
     </row>
     <row r="127" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H127" s="35"/>
-      <c r="I127" s="35"/>
-      <c r="J127" s="35"/>
+      <c r="H127" s="33"/>
+      <c r="I127" s="33"/>
+      <c r="J127" s="33"/>
     </row>
     <row r="128" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H128" s="35"/>
-      <c r="I128" s="35"/>
-      <c r="J128" s="35"/>
+      <c r="H128" s="33"/>
+      <c r="I128" s="33"/>
+      <c r="J128" s="33"/>
     </row>
     <row r="129" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H129" s="35"/>
-      <c r="I129" s="35"/>
-      <c r="J129" s="35"/>
+      <c r="H129" s="33"/>
+      <c r="I129" s="33"/>
+      <c r="J129" s="33"/>
     </row>
     <row r="130" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H130" s="35"/>
-      <c r="I130" s="35"/>
-      <c r="J130" s="35"/>
+      <c r="H130" s="33"/>
+      <c r="I130" s="33"/>
+      <c r="J130" s="33"/>
     </row>
     <row r="131" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H131" s="35"/>
-      <c r="I131" s="35"/>
-      <c r="J131" s="35"/>
+      <c r="H131" s="33"/>
+      <c r="I131" s="33"/>
+      <c r="J131" s="33"/>
     </row>
     <row r="132" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H132" s="35"/>
-      <c r="I132" s="35"/>
-      <c r="J132" s="35"/>
+      <c r="H132" s="33"/>
+      <c r="I132" s="33"/>
+      <c r="J132" s="33"/>
     </row>
     <row r="133" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H133" s="35"/>
-      <c r="I133" s="35"/>
-      <c r="J133" s="35"/>
+      <c r="H133" s="33"/>
+      <c r="I133" s="33"/>
+      <c r="J133" s="33"/>
     </row>
     <row r="134" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H134" s="35"/>
-      <c r="I134" s="35"/>
-      <c r="J134" s="35"/>
+      <c r="H134" s="33"/>
+      <c r="I134" s="33"/>
+      <c r="J134" s="33"/>
     </row>
     <row r="135" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H135" s="35"/>
-      <c r="I135" s="35"/>
-      <c r="J135" s="35"/>
+      <c r="H135" s="33"/>
+      <c r="I135" s="33"/>
+      <c r="J135" s="33"/>
     </row>
     <row r="136" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H136" s="35"/>
-      <c r="I136" s="35"/>
-      <c r="J136" s="35"/>
+      <c r="H136" s="33"/>
+      <c r="I136" s="33"/>
+      <c r="J136" s="33"/>
     </row>
     <row r="137" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H137" s="35"/>
-      <c r="I137" s="35"/>
-      <c r="J137" s="35"/>
+      <c r="H137" s="33"/>
+      <c r="I137" s="33"/>
+      <c r="J137" s="33"/>
     </row>
     <row r="138" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H138" s="35"/>
-      <c r="I138" s="35"/>
-      <c r="J138" s="35"/>
+      <c r="H138" s="33"/>
+      <c r="I138" s="33"/>
+      <c r="J138" s="33"/>
     </row>
     <row r="139" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H139" s="35"/>
-      <c r="I139" s="35"/>
-      <c r="J139" s="35"/>
+      <c r="H139" s="33"/>
+      <c r="I139" s="33"/>
+      <c r="J139" s="33"/>
     </row>
     <row r="140" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H140" s="35"/>
-      <c r="I140" s="35"/>
-      <c r="J140" s="35"/>
+      <c r="H140" s="33"/>
+      <c r="I140" s="33"/>
+      <c r="J140" s="33"/>
     </row>
     <row r="141" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H141" s="35"/>
-      <c r="I141" s="35"/>
-      <c r="J141" s="35"/>
+      <c r="H141" s="33"/>
+      <c r="I141" s="33"/>
+      <c r="J141" s="33"/>
     </row>
     <row r="142" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H142" s="35"/>
-      <c r="I142" s="35"/>
-      <c r="J142" s="35"/>
+      <c r="H142" s="33"/>
+      <c r="I142" s="33"/>
+      <c r="J142" s="33"/>
     </row>
     <row r="143" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H143" s="35"/>
-      <c r="I143" s="35"/>
-      <c r="J143" s="35"/>
+      <c r="H143" s="33"/>
+      <c r="I143" s="33"/>
+      <c r="J143" s="33"/>
     </row>
     <row r="144" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H144" s="35"/>
-      <c r="I144" s="35"/>
-      <c r="J144" s="35"/>
+      <c r="H144" s="33"/>
+      <c r="I144" s="33"/>
+      <c r="J144" s="33"/>
     </row>
     <row r="145" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H145" s="35"/>
-      <c r="I145" s="35"/>
-      <c r="J145" s="35"/>
+      <c r="H145" s="33"/>
+      <c r="I145" s="33"/>
+      <c r="J145" s="33"/>
     </row>
     <row r="146" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H146" s="35"/>
-      <c r="I146" s="35"/>
-      <c r="J146" s="35"/>
+      <c r="H146" s="33"/>
+      <c r="I146" s="33"/>
+      <c r="J146" s="33"/>
     </row>
     <row r="147" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H147" s="35"/>
-      <c r="I147" s="35"/>
-      <c r="J147" s="35"/>
+      <c r="H147" s="33"/>
+      <c r="I147" s="33"/>
+      <c r="J147" s="33"/>
     </row>
     <row r="148" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H148" s="35"/>
-      <c r="I148" s="35"/>
-      <c r="J148" s="35"/>
+      <c r="H148" s="33"/>
+      <c r="I148" s="33"/>
+      <c r="J148" s="33"/>
     </row>
     <row r="149" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H149" s="35"/>
-      <c r="I149" s="35"/>
-      <c r="J149" s="35"/>
+      <c r="H149" s="33"/>
+      <c r="I149" s="33"/>
+      <c r="J149" s="33"/>
     </row>
     <row r="150" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H150" s="35"/>
-      <c r="I150" s="35"/>
-      <c r="J150" s="35"/>
+      <c r="H150" s="33"/>
+      <c r="I150" s="33"/>
+      <c r="J150" s="33"/>
     </row>
     <row r="151" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H151" s="35"/>
-      <c r="I151" s="35"/>
-      <c r="J151" s="35"/>
+      <c r="H151" s="33"/>
+      <c r="I151" s="33"/>
+      <c r="J151" s="33"/>
     </row>
     <row r="152" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H152" s="35"/>
-      <c r="I152" s="35"/>
-      <c r="J152" s="35"/>
+      <c r="H152" s="33"/>
+      <c r="I152" s="33"/>
+      <c r="J152" s="33"/>
     </row>
     <row r="153" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H153" s="35"/>
-      <c r="I153" s="35"/>
-      <c r="J153" s="35"/>
+      <c r="H153" s="33"/>
+      <c r="I153" s="33"/>
+      <c r="J153" s="33"/>
     </row>
     <row r="154" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H154" s="35"/>
-      <c r="I154" s="35"/>
-      <c r="J154" s="35"/>
+      <c r="H154" s="33"/>
+      <c r="I154" s="33"/>
+      <c r="J154" s="33"/>
     </row>
     <row r="155" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H155" s="35"/>
-      <c r="I155" s="35"/>
-      <c r="J155" s="35"/>
+      <c r="H155" s="33"/>
+      <c r="I155" s="33"/>
+      <c r="J155" s="33"/>
     </row>
     <row r="156" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H156" s="35"/>
-      <c r="I156" s="35"/>
-      <c r="J156" s="35"/>
+      <c r="H156" s="33"/>
+      <c r="I156" s="33"/>
+      <c r="J156" s="33"/>
     </row>
     <row r="157" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H157" s="35"/>
-      <c r="I157" s="35"/>
-      <c r="J157" s="35"/>
+      <c r="H157" s="33"/>
+      <c r="I157" s="33"/>
+      <c r="J157" s="33"/>
     </row>
     <row r="158" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H158" s="35"/>
-      <c r="I158" s="35"/>
-      <c r="J158" s="35"/>
+      <c r="H158" s="33"/>
+      <c r="I158" s="33"/>
+      <c r="J158" s="33"/>
     </row>
     <row r="159" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H159" s="35"/>
-      <c r="I159" s="35"/>
-      <c r="J159" s="35"/>
+      <c r="H159" s="33"/>
+      <c r="I159" s="33"/>
+      <c r="J159" s="33"/>
     </row>
     <row r="160" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H160" s="35"/>
-      <c r="I160" s="35"/>
-      <c r="J160" s="35"/>
+      <c r="H160" s="33"/>
+      <c r="I160" s="33"/>
+      <c r="J160" s="33"/>
     </row>
     <row r="161" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H161" s="35"/>
-      <c r="I161" s="35"/>
-      <c r="J161" s="35"/>
+      <c r="H161" s="33"/>
+      <c r="I161" s="33"/>
+      <c r="J161" s="33"/>
     </row>
     <row r="162" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H162" s="35"/>
-      <c r="I162" s="35"/>
-      <c r="J162" s="35"/>
+      <c r="H162" s="33"/>
+      <c r="I162" s="33"/>
+      <c r="J162" s="33"/>
     </row>
     <row r="163" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H163" s="35"/>
-      <c r="I163" s="35"/>
-      <c r="J163" s="35"/>
+      <c r="H163" s="33"/>
+      <c r="I163" s="33"/>
+      <c r="J163" s="33"/>
     </row>
     <row r="164" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H164" s="35"/>
-      <c r="I164" s="35"/>
-      <c r="J164" s="35"/>
+      <c r="H164" s="33"/>
+      <c r="I164" s="33"/>
+      <c r="J164" s="33"/>
     </row>
     <row r="165" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H165" s="35"/>
-      <c r="I165" s="35"/>
-      <c r="J165" s="35"/>
+      <c r="H165" s="33"/>
+      <c r="I165" s="33"/>
+      <c r="J165" s="33"/>
     </row>
     <row r="166" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H166" s="35"/>
-      <c r="I166" s="35"/>
-      <c r="J166" s="35"/>
+      <c r="H166" s="33"/>
+      <c r="I166" s="33"/>
+      <c r="J166" s="33"/>
     </row>
     <row r="167" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H167" s="35"/>
-      <c r="I167" s="35"/>
-      <c r="J167" s="35"/>
+      <c r="H167" s="33"/>
+      <c r="I167" s="33"/>
+      <c r="J167" s="33"/>
     </row>
     <row r="168" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H168" s="35"/>
-      <c r="I168" s="35"/>
-      <c r="J168" s="35"/>
+      <c r="H168" s="33"/>
+      <c r="I168" s="33"/>
+      <c r="J168" s="33"/>
     </row>
     <row r="169" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H169" s="35"/>
-      <c r="I169" s="35"/>
-      <c r="J169" s="35"/>
+      <c r="H169" s="33"/>
+      <c r="I169" s="33"/>
+      <c r="J169" s="33"/>
     </row>
     <row r="170" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H170" s="35"/>
-      <c r="I170" s="35"/>
-      <c r="J170" s="35"/>
+      <c r="H170" s="33"/>
+      <c r="I170" s="33"/>
+      <c r="J170" s="33"/>
     </row>
     <row r="171" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H171" s="35"/>
-      <c r="I171" s="35"/>
-      <c r="J171" s="35"/>
+      <c r="H171" s="33"/>
+      <c r="I171" s="33"/>
+      <c r="J171" s="33"/>
     </row>
     <row r="172" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H172" s="35"/>
-      <c r="I172" s="35"/>
-      <c r="J172" s="35"/>
+      <c r="H172" s="33"/>
+      <c r="I172" s="33"/>
+      <c r="J172" s="33"/>
     </row>
     <row r="173" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H173" s="35"/>
-      <c r="I173" s="35"/>
-      <c r="J173" s="35"/>
+      <c r="H173" s="33"/>
+      <c r="I173" s="33"/>
+      <c r="J173" s="33"/>
     </row>
     <row r="174" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H174" s="35"/>
-      <c r="I174" s="35"/>
-      <c r="J174" s="35"/>
+      <c r="H174" s="33"/>
+      <c r="I174" s="33"/>
+      <c r="J174" s="33"/>
     </row>
     <row r="175" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H175" s="35"/>
-      <c r="I175" s="35"/>
-      <c r="J175" s="35"/>
+      <c r="H175" s="33"/>
+      <c r="I175" s="33"/>
+      <c r="J175" s="33"/>
     </row>
     <row r="176" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H176" s="35"/>
-      <c r="I176" s="35"/>
-      <c r="J176" s="35"/>
+      <c r="H176" s="33"/>
+      <c r="I176" s="33"/>
+      <c r="J176" s="33"/>
     </row>
     <row r="177" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H177" s="35"/>
-      <c r="I177" s="35"/>
-      <c r="J177" s="35"/>
+      <c r="H177" s="33"/>
+      <c r="I177" s="33"/>
+      <c r="J177" s="33"/>
     </row>
     <row r="178" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H178" s="35"/>
-      <c r="I178" s="35"/>
-      <c r="J178" s="35"/>
+      <c r="H178" s="33"/>
+      <c r="I178" s="33"/>
+      <c r="J178" s="33"/>
     </row>
     <row r="179" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H179" s="35"/>
-      <c r="I179" s="35"/>
-      <c r="J179" s="35"/>
+      <c r="H179" s="33"/>
+      <c r="I179" s="33"/>
+      <c r="J179" s="33"/>
     </row>
     <row r="180" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H180" s="35"/>
-      <c r="I180" s="35"/>
-      <c r="J180" s="35"/>
+      <c r="H180" s="33"/>
+      <c r="I180" s="33"/>
+      <c r="J180" s="33"/>
     </row>
     <row r="181" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H181" s="35"/>
-      <c r="I181" s="35"/>
-      <c r="J181" s="35"/>
+      <c r="H181" s="33"/>
+      <c r="I181" s="33"/>
+      <c r="J181" s="33"/>
     </row>
     <row r="182" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H182" s="35"/>
-      <c r="I182" s="35"/>
-      <c r="J182" s="35"/>
+      <c r="H182" s="33"/>
+      <c r="I182" s="33"/>
+      <c r="J182" s="33"/>
     </row>
     <row r="183" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H183" s="35"/>
-      <c r="I183" s="35"/>
-      <c r="J183" s="35"/>
+      <c r="H183" s="33"/>
+      <c r="I183" s="33"/>
+      <c r="J183" s="33"/>
     </row>
     <row r="184" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H184" s="35"/>
-      <c r="I184" s="35"/>
-      <c r="J184" s="35"/>
+      <c r="H184" s="33"/>
+      <c r="I184" s="33"/>
+      <c r="J184" s="33"/>
     </row>
     <row r="185" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H185" s="35"/>
-      <c r="I185" s="35"/>
-      <c r="J185" s="35"/>
+      <c r="H185" s="33"/>
+      <c r="I185" s="33"/>
+      <c r="J185" s="33"/>
     </row>
     <row r="186" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H186" s="35"/>
-      <c r="I186" s="35"/>
-      <c r="J186" s="35"/>
+      <c r="H186" s="33"/>
+      <c r="I186" s="33"/>
+      <c r="J186" s="33"/>
     </row>
     <row r="187" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H187" s="35"/>
-      <c r="I187" s="35"/>
-      <c r="J187" s="35"/>
+      <c r="H187" s="33"/>
+      <c r="I187" s="33"/>
+      <c r="J187" s="33"/>
     </row>
     <row r="188" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H188" s="35"/>
-      <c r="I188" s="35"/>
-      <c r="J188" s="35"/>
+      <c r="H188" s="33"/>
+      <c r="I188" s="33"/>
+      <c r="J188" s="33"/>
     </row>
     <row r="189" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H189" s="35"/>
-      <c r="I189" s="35"/>
-      <c r="J189" s="35"/>
+      <c r="H189" s="33"/>
+      <c r="I189" s="33"/>
+      <c r="J189" s="33"/>
     </row>
   </sheetData>
   <sheetProtection sort="0" autoFilter="0" pivotTables="0"/>
@@ -4265,15 +5751,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q12"/>
+  <sheetPr codeName="Blad2"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.54296875" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
@@ -4290,7 +5777,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="31"/>
+      <c r="A1" s="29"/>
       <c r="B1" s="6"/>
       <c r="C1" s="15" t="s">
         <v>55</v>
@@ -4311,7 +5798,7 @@
       <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -4327,7 +5814,7 @@
         <v>68</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -4356,7 +5843,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -4372,33 +5859,33 @@
         <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="J3" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="J3" s="37" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="L3" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="47" t="s">
+      <c r="M3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="46" t="s">
+      <c r="N3" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="46" t="s">
+      <c r="O3" s="41" t="s">
         <v>38</v>
       </c>
       <c r="P3" s="4" t="s">
@@ -4409,147 +5896,457 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B4" s="44" t="s">
-        <v>83</v>
+      <c r="B4" s="48" t="s">
+        <v>340</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B5" s="45" t="s">
-        <v>85</v>
+      <c r="B5" s="48" t="s">
+        <v>342</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B6" s="45" t="s">
-        <v>86</v>
+      <c r="B6" s="48" t="s">
+        <v>344</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B7" s="45" t="s">
-        <v>87</v>
+      <c r="B7" s="48" t="s">
+        <v>346</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B8" s="45" t="s">
-        <v>88</v>
+      <c r="B8" s="48" t="s">
+        <v>348</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B9" s="45" t="s">
-        <v>89</v>
+      <c r="B9" s="48" t="s">
+        <v>350</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B10" s="45" t="s">
-        <v>195</v>
+      <c r="B10" s="48" t="s">
+        <v>352</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B11" s="45" t="s">
-        <v>102</v>
+      <c r="B11" s="48" t="s">
+        <v>354</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B12" s="45" t="s">
-        <v>220</v>
+      <c r="B12" s="48" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B13" s="48" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B14" s="48" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B15" s="48" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B16" s="48" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="49" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="48" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="49" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="48" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="49" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="48" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="48" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="48" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="48" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="48" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="48" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="48" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="48" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="48" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="49" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="48" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="49" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="48" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="48" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B38" s="48" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="48" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="48" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="48" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="48" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="48" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="48" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="48" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="48" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="48" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="48" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="48" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="49" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B51" s="48" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B52" s="48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="48" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="49" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="49" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="49" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="49" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="50" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B59" s="51" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B60" s="49" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B61" s="52" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B62" s="49" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B63" s="49" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B64" s="49" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B65" s="49" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B66" s="49" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B67" s="49" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B68" s="49" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B69" s="49" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B70" s="51" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B71" s="50" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B72" s="49" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B73" s="49" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B74" s="49" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
